--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,58 +55,76 @@
     <t>warning</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>hell</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shortage</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>risk</t>
@@ -118,199 +136,211 @@
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -668,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -808,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,16 +938,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -958,16 +988,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.726027397260274</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C9">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D9">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.8359375</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7241379310344828</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,31 +1135,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
+        <v>106</v>
+      </c>
+      <c r="M10">
+        <v>106</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5909090909090909</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -1205,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L12">
         <v>46</v>
       </c>
-      <c r="K12">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L12">
-        <v>29</v>
-      </c>
       <c r="M12">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1258,16 +1288,16 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5161290322580645</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.8028169014084507</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5128205128205128</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.7931034482758621</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4509803921568628</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1529,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1537,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4324324324324325</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,7 +1588,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K19">
         <v>0.7125</v>
@@ -1587,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3720930232558139</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C20">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1605,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.36</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.6914893617021277</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3557046979865772</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1705,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.6842105263157895</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3227513227513227</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1787,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3220338983050847</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1837,13 +1867,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3137254901960784</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1855,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.6344647519582245</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1879,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2727272727272727</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.6296296296296297</v>
+        <v>0.62</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1929,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,38 +1967,38 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2333333333333333</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C27">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>97</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L27">
         <v>21</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>21</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>69</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27">
-        <v>0.6279069767441861</v>
-      </c>
-      <c r="L27">
-        <v>27</v>
-      </c>
-      <c r="M27">
-        <v>27</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -1979,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +2017,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2063492063492063</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C28">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.625</v>
+        <v>0.6057441253263708</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2029,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,13 +2067,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1313672922252011</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2055,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.5882352941176471</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2079,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,314 +2117,458 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004095778197857593</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>42</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>41</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31">
+        <v>0.5525423728813559</v>
+      </c>
+      <c r="L31">
+        <v>163</v>
+      </c>
+      <c r="M31">
+        <v>163</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.2467532467532468</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>58</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>13</v>
       </c>
-      <c r="D30">
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>69</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L33">
+        <v>15</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>196</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L34">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>14</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30">
-        <v>0.68</v>
-      </c>
-      <c r="F30">
-        <v>0.32</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>3161</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="B35">
+        <v>0.2</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>64</v>
       </c>
-      <c r="K30">
-        <v>0.5823529411764706</v>
-      </c>
-      <c r="L30">
-        <v>198</v>
-      </c>
-      <c r="M30">
-        <v>198</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.5730337078651685</v>
-      </c>
-      <c r="L31">
-        <v>51</v>
-      </c>
-      <c r="M31">
-        <v>51</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L32">
-        <v>16</v>
-      </c>
-      <c r="M32">
-        <v>16</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33">
-        <v>0.55</v>
-      </c>
-      <c r="L33">
+      <c r="J35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.0938337801608579</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>338</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+      <c r="M36">
+        <v>18</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>0.4895397489539749</v>
+      </c>
+      <c r="L37">
+        <v>117</v>
+      </c>
+      <c r="M37">
+        <v>117</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L38">
         <v>22</v>
       </c>
-      <c r="M33">
+      <c r="M38">
         <v>22</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34">
-        <v>0.5491525423728814</v>
-      </c>
-      <c r="L34">
-        <v>162</v>
-      </c>
-      <c r="M34">
-        <v>162</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
-      </c>
-      <c r="M35">
-        <v>15</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K36">
-        <v>0.5151515151515151</v>
-      </c>
-      <c r="L36">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L39">
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40">
+        <v>0.425</v>
+      </c>
+      <c r="L40">
         <v>17</v>
       </c>
-      <c r="M36">
+      <c r="M40">
         <v>17</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="L37">
-        <v>22</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38">
-        <v>0.4811715481171548</v>
-      </c>
-      <c r="L38">
-        <v>115</v>
-      </c>
-      <c r="M38">
-        <v>115</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39">
-        <v>0.4383561643835616</v>
-      </c>
-      <c r="L39">
-        <v>32</v>
-      </c>
-      <c r="M39">
-        <v>32</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40">
-        <v>0.4307692307692308</v>
-      </c>
-      <c r="L40">
-        <v>28</v>
-      </c>
-      <c r="M40">
-        <v>28</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
+    <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K41">
         <v>0.4230769230769231</v>
@@ -2418,18 +2592,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="10:17">
+    <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.390625</v>
+        <v>0.40625</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2441,21 +2615,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2467,15 +2641,15 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.3095238095238095</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L44">
         <v>13</v>
@@ -2493,21 +2667,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.3</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2519,47 +2693,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.1384615384615385</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.131578947368421</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L47">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2571,21 +2745,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.1259842519685039</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2597,21 +2771,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.1096196868008949</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L49">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2623,21 +2797,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>796</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.1081730769230769</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="L50">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M50">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2649,21 +2823,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.1069767441860465</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2675,21 +2849,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>192</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.09302325581395349</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2701,21 +2875,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>195</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K53">
-        <v>0.08484848484848485</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2727,73 +2901,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>151</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.08024691358024691</v>
+        <v>0.1062639821029083</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="N54">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>149</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K55">
-        <v>0.08</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L55">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>828</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.0755813953488372</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2805,241 +2979,319 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.04892966360856269</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>311</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K58">
-        <v>0.04560260586319218</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>293</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.04329896907216495</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>464</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.04006163328197226</v>
+        <v>0.04892966360856269</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>623</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.03810623556581986</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="L61">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>833</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.03370786516853932</v>
+        <v>0.03810623556581986</v>
       </c>
       <c r="L62">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="N62">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>2064</v>
+        <v>833</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.01652892561983471</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>952</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K64">
-        <v>0.01547388781431335</v>
+        <v>0.03230769230769231</v>
       </c>
       <c r="L64">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="N64">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>3054</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="K65">
-        <v>0.008469259723964869</v>
+        <v>0.02032913843175218</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="N65">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="O65">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>3161</v>
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K66">
+        <v>0.01552795031055901</v>
+      </c>
+      <c r="L66">
+        <v>15</v>
+      </c>
+      <c r="M66">
+        <v>17</v>
+      </c>
+      <c r="N66">
+        <v>0.88</v>
+      </c>
+      <c r="O66">
+        <v>0.12</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K67">
+        <v>0.01293103448275862</v>
+      </c>
+      <c r="L67">
+        <v>15</v>
+      </c>
+      <c r="M67">
+        <v>16</v>
+      </c>
+      <c r="N67">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O67">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K68">
+        <v>0.009398496240601503</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>39</v>
+      </c>
+      <c r="N68">
+        <v>0.77</v>
+      </c>
+      <c r="O68">
+        <v>0.23</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3162</v>
       </c>
     </row>
   </sheetData>
